--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H2">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I2">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J2">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.180800721190486</v>
+        <v>0.202088</v>
       </c>
       <c r="N2">
-        <v>0.180800721190486</v>
+        <v>0.404176</v>
       </c>
       <c r="O2">
-        <v>0.03328723229921456</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P2">
-        <v>0.03328723229921456</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q2">
-        <v>1.622471795047802</v>
+        <v>1.817885433232</v>
       </c>
       <c r="R2">
-        <v>1.622471795047802</v>
+        <v>7.271541732927999</v>
       </c>
       <c r="S2">
-        <v>0.004636127048627861</v>
+        <v>0.004932935481049621</v>
       </c>
       <c r="T2">
-        <v>0.004636127048627861</v>
+        <v>0.002768083562351684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H3">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I3">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J3">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.97039084334425</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N3">
-        <v>2.97039084334425</v>
+        <v>9.253715</v>
       </c>
       <c r="O3">
-        <v>0.5468788474449011</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P3">
-        <v>0.5468788474449011</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q3">
-        <v>26.65573086136508</v>
+        <v>27.74730761150333</v>
       </c>
       <c r="R3">
-        <v>26.65573086136508</v>
+        <v>166.48384566902</v>
       </c>
       <c r="S3">
-        <v>0.07616733629793428</v>
+        <v>0.0752938968090157</v>
       </c>
       <c r="T3">
-        <v>0.07616733629793428</v>
+        <v>0.06337599556180282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H4">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I4">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J4">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.153452167344145</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N4">
-        <v>0.153452167344145</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O4">
-        <v>0.02825208830788276</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P4">
-        <v>0.02825208830788276</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q4">
-        <v>1.377050997172305</v>
+        <v>0.2029897704193333</v>
       </c>
       <c r="R4">
-        <v>1.377050997172305</v>
+        <v>1.217938622516</v>
       </c>
       <c r="S4">
-        <v>0.003934850143353276</v>
+        <v>0.0005508242832505577</v>
       </c>
       <c r="T4">
-        <v>0.003934850143353276</v>
+        <v>0.0004636370118970991</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H5">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I5">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J5">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.12688988333106</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N5">
-        <v>2.12688988333106</v>
+        <v>0.020477</v>
       </c>
       <c r="O5">
-        <v>0.3915818319480014</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P5">
-        <v>0.3915818319480014</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q5">
-        <v>19.08631129430884</v>
+        <v>0.06140038005933333</v>
       </c>
       <c r="R5">
-        <v>19.08631129430884</v>
+        <v>0.368402280356</v>
       </c>
       <c r="S5">
-        <v>0.05453812159950033</v>
+        <v>0.0001666134222804802</v>
       </c>
       <c r="T5">
-        <v>0.05453812159950033</v>
+        <v>0.0001402410017078585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.285816674710221</v>
+        <v>8.995514</v>
       </c>
       <c r="H6">
-        <v>8.285816674710221</v>
+        <v>17.991028</v>
       </c>
       <c r="I6">
-        <v>0.1285985183825291</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J6">
-        <v>0.1285985183825291</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.180800721190486</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N6">
-        <v>0.180800721190486</v>
+        <v>0.46904</v>
       </c>
       <c r="O6">
-        <v>0.03328723229921456</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P6">
-        <v>0.03328723229921456</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q6">
-        <v>1.498081630439763</v>
+        <v>1.406418628853333</v>
       </c>
       <c r="R6">
-        <v>1.498081630439763</v>
+        <v>8.43851177312</v>
       </c>
       <c r="S6">
-        <v>0.004280688754734059</v>
+        <v>0.003816396912948013</v>
       </c>
       <c r="T6">
-        <v>0.004280688754734059</v>
+        <v>0.003212318183379107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.285816674710221</v>
+        <v>8.995514</v>
       </c>
       <c r="H7">
-        <v>8.285816674710221</v>
+        <v>17.991028</v>
       </c>
       <c r="I7">
-        <v>0.1285985183825291</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J7">
-        <v>0.1285985183825291</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.97039084334425</v>
+        <v>2.1440675</v>
       </c>
       <c r="N7">
-        <v>2.97039084334425</v>
+        <v>4.288135</v>
       </c>
       <c r="O7">
-        <v>0.5468788474449011</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P7">
-        <v>0.5468788474449011</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q7">
-        <v>24.61211398018834</v>
+        <v>19.286989213195</v>
       </c>
       <c r="R7">
-        <v>24.61211398018834</v>
+        <v>77.14795685278001</v>
       </c>
       <c r="S7">
-        <v>0.07032780951615943</v>
+        <v>0.05233634181403823</v>
       </c>
       <c r="T7">
-        <v>0.07032780951615943</v>
+        <v>0.02936818615317322</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H8">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J8">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.153452167344145</v>
+        <v>0.202088</v>
       </c>
       <c r="N8">
-        <v>0.153452167344145</v>
+        <v>0.404176</v>
       </c>
       <c r="O8">
-        <v>0.02825208830788276</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P8">
-        <v>0.02825208830788276</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q8">
-        <v>1.27147652695054</v>
+        <v>1.812101203133333</v>
       </c>
       <c r="R8">
-        <v>1.27147652695054</v>
+        <v>10.8726072188</v>
       </c>
       <c r="S8">
-        <v>0.003633176697606096</v>
+        <v>0.004917239643807811</v>
       </c>
       <c r="T8">
-        <v>0.003633176697606096</v>
+        <v>0.004138913923299151</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H9">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J9">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.12688988333106</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N9">
-        <v>2.12688988333106</v>
+        <v>9.253715</v>
       </c>
       <c r="O9">
-        <v>0.3915818319480014</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P9">
-        <v>0.3915818319480014</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q9">
-        <v>17.62301966057697</v>
+        <v>27.65901997306945</v>
       </c>
       <c r="R9">
-        <v>17.62301966057697</v>
+        <v>248.931179757625</v>
       </c>
       <c r="S9">
-        <v>0.05035684341402947</v>
+        <v>0.07505432328242977</v>
       </c>
       <c r="T9">
-        <v>0.05035684341402947</v>
+        <v>0.09476151442871968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.7437348013044</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H10">
-        <v>17.7437348013044</v>
+        <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.2753884252574375</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J10">
-        <v>0.2753884252574375</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.180800721190486</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N10">
-        <v>0.180800721190486</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O10">
-        <v>0.03328723229921456</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P10">
-        <v>0.03328723229921456</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q10">
-        <v>3.20808004868856</v>
+        <v>0.2023438883861111</v>
       </c>
       <c r="R10">
-        <v>3.20808004868856</v>
+        <v>1.821094995475</v>
       </c>
       <c r="S10">
-        <v>0.009166918484059207</v>
+        <v>0.0005490716456310408</v>
       </c>
       <c r="T10">
-        <v>0.009166918484059207</v>
+        <v>0.000693242686021888</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.7437348013044</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H11">
-        <v>17.7437348013044</v>
+        <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.2753884252574375</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J11">
-        <v>0.2753884252574375</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.97039084334425</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N11">
-        <v>2.97039084334425</v>
+        <v>0.020477</v>
       </c>
       <c r="O11">
-        <v>0.5468788474449011</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P11">
-        <v>0.5468788474449011</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q11">
-        <v>52.7058273805233</v>
+        <v>0.06120501355277778</v>
       </c>
       <c r="R11">
-        <v>52.7058273805233</v>
+        <v>0.5508451219749999</v>
       </c>
       <c r="S11">
-        <v>0.1506041046044537</v>
+        <v>0.0001660832841571536</v>
       </c>
       <c r="T11">
-        <v>0.1506041046044537</v>
+        <v>0.000209692164817794</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.7437348013044</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H12">
-        <v>17.7437348013044</v>
+        <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.2753884252574375</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J12">
-        <v>0.2753884252574375</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.153452167344145</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N12">
-        <v>0.153452167344145</v>
+        <v>0.46904</v>
       </c>
       <c r="O12">
-        <v>0.02825208830788276</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P12">
-        <v>0.02825208830788276</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q12">
-        <v>2.722814562039892</v>
+        <v>1.401943622444444</v>
       </c>
       <c r="R12">
-        <v>2.722814562039892</v>
+        <v>12.617492602</v>
       </c>
       <c r="S12">
-        <v>0.007780298109341895</v>
+        <v>0.003804253728625839</v>
       </c>
       <c r="T12">
-        <v>0.007780298109341895</v>
+        <v>0.004803145626123852</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.7437348013044</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H13">
-        <v>17.7437348013044</v>
+        <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.2753884252574375</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J13">
-        <v>0.2753884252574375</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.12688988333106</v>
+        <v>2.1440675</v>
       </c>
       <c r="N13">
-        <v>2.12688988333106</v>
+        <v>4.288135</v>
       </c>
       <c r="O13">
-        <v>0.3915818319480014</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P13">
-        <v>0.3915818319480014</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q13">
-        <v>37.73897004140358</v>
+        <v>19.22562099852084</v>
       </c>
       <c r="R13">
-        <v>37.73897004140358</v>
+        <v>115.353725991125</v>
       </c>
       <c r="S13">
-        <v>0.1078371040595826</v>
+        <v>0.05216981567435921</v>
       </c>
       <c r="T13">
-        <v>0.1078371040595826</v>
+        <v>0.04391211169511898</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.0459063141213</v>
+        <v>17.926905</v>
       </c>
       <c r="H14">
-        <v>17.0459063141213</v>
+        <v>53.780715</v>
       </c>
       <c r="I14">
-        <v>0.2645579044940745</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J14">
-        <v>0.2645579044940745</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.180800721190486</v>
+        <v>0.202088</v>
       </c>
       <c r="N14">
-        <v>0.180800721190486</v>
+        <v>0.404176</v>
       </c>
       <c r="O14">
-        <v>0.03328723229921456</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P14">
-        <v>0.03328723229921456</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q14">
-        <v>3.08191215493859</v>
+        <v>3.62281237764</v>
       </c>
       <c r="R14">
-        <v>3.08191215493859</v>
+        <v>21.73687426584</v>
       </c>
       <c r="S14">
-        <v>0.008806400423487676</v>
+        <v>0.009830707365905479</v>
       </c>
       <c r="T14">
-        <v>0.008806400423487676</v>
+        <v>0.008274652963856242</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.0459063141213</v>
+        <v>17.926905</v>
       </c>
       <c r="H15">
-        <v>17.0459063141213</v>
+        <v>53.780715</v>
       </c>
       <c r="I15">
-        <v>0.2645579044940745</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J15">
-        <v>0.2645579044940745</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.97039084334425</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N15">
-        <v>2.97039084334425</v>
+        <v>9.253715</v>
       </c>
       <c r="O15">
-        <v>0.5468788474449011</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P15">
-        <v>0.5468788474449011</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q15">
-        <v>50.63300403196985</v>
+        <v>55.29682323402501</v>
       </c>
       <c r="R15">
-        <v>50.63300403196985</v>
+        <v>497.671409106225</v>
       </c>
       <c r="S15">
-        <v>0.1446811218921577</v>
+        <v>0.1500510738102378</v>
       </c>
       <c r="T15">
-        <v>0.1446811218921577</v>
+        <v>0.1894503390884935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.0459063141213</v>
+        <v>17.926905</v>
       </c>
       <c r="H16">
-        <v>17.0459063141213</v>
+        <v>53.780715</v>
       </c>
       <c r="I16">
-        <v>0.2645579044940745</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J16">
-        <v>0.2645579044940745</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.153452167344145</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N16">
-        <v>0.153452167344145</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O16">
-        <v>0.02825208830788276</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P16">
-        <v>0.02825208830788276</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q16">
-        <v>2.615731268247159</v>
+        <v>0.404532562595</v>
       </c>
       <c r="R16">
-        <v>2.615731268247159</v>
+        <v>3.640793063355</v>
       </c>
       <c r="S16">
-        <v>0.007474313280315005</v>
+        <v>0.001097722108767308</v>
       </c>
       <c r="T16">
-        <v>0.007474313280315005</v>
+        <v>0.001385953598665373</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.0459063141213</v>
+        <v>17.926905</v>
       </c>
       <c r="H17">
-        <v>17.0459063141213</v>
+        <v>53.780715</v>
       </c>
       <c r="I17">
-        <v>0.2645579044940745</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J17">
-        <v>0.2645579044940745</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.12688988333106</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N17">
-        <v>2.12688988333106</v>
+        <v>0.020477</v>
       </c>
       <c r="O17">
-        <v>0.3915818319480014</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P17">
-        <v>0.3915818319480014</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q17">
-        <v>36.25476569171363</v>
+        <v>0.122363077895</v>
       </c>
       <c r="R17">
-        <v>36.25476569171363</v>
+        <v>1.101267701055</v>
       </c>
       <c r="S17">
-        <v>0.1035960688981141</v>
+        <v>0.000332039168962113</v>
       </c>
       <c r="T17">
-        <v>0.1035960688981141</v>
+        <v>0.0004192234787342253</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.69262766584481</v>
+        <v>17.926905</v>
       </c>
       <c r="H18">
-        <v>5.69262766584481</v>
+        <v>53.780715</v>
       </c>
       <c r="I18">
-        <v>0.08835139760760394</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J18">
-        <v>0.08835139760760394</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.180800721190486</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N18">
-        <v>0.180800721190486</v>
+        <v>0.46904</v>
       </c>
       <c r="O18">
-        <v>0.03328723229921456</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P18">
-        <v>0.03328723229921456</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q18">
-        <v>1.029231187453655</v>
+        <v>2.8028118404</v>
       </c>
       <c r="R18">
-        <v>1.029231187453655</v>
+        <v>25.2253065636</v>
       </c>
       <c r="S18">
-        <v>0.002940973496124582</v>
+        <v>0.007605589286027713</v>
       </c>
       <c r="T18">
-        <v>0.002940973496124582</v>
+        <v>0.009602606849904825</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.69262766584481</v>
+        <v>17.926905</v>
       </c>
       <c r="H19">
-        <v>5.69262766584481</v>
+        <v>53.780715</v>
       </c>
       <c r="I19">
-        <v>0.08835139760760394</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J19">
-        <v>0.08835139760760394</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.97039084334425</v>
+        <v>2.1440675</v>
       </c>
       <c r="N19">
-        <v>2.97039084334425</v>
+        <v>4.288135</v>
       </c>
       <c r="O19">
-        <v>0.5468788474449011</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P19">
-        <v>0.5468788474449011</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q19">
-        <v>16.90932909319358</v>
+        <v>38.43649438608751</v>
       </c>
       <c r="R19">
-        <v>16.90932909319358</v>
+        <v>230.618966316525</v>
       </c>
       <c r="S19">
-        <v>0.04831751049379263</v>
+        <v>0.1042996128679018</v>
       </c>
       <c r="T19">
-        <v>0.04831751049379263</v>
+        <v>0.08779053923826673</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.69262766584481</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H20">
-        <v>5.69262766584481</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I20">
-        <v>0.08835139760760394</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J20">
-        <v>0.08835139760760394</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.153452167344145</v>
+        <v>0.202088</v>
       </c>
       <c r="N20">
-        <v>0.153452167344145</v>
+        <v>0.404176</v>
       </c>
       <c r="O20">
-        <v>0.02825208830788276</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P20">
-        <v>0.02825208830788276</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q20">
-        <v>0.8735460532071273</v>
+        <v>3.477468397709333</v>
       </c>
       <c r="R20">
-        <v>0.8735460532071273</v>
+        <v>20.864810386256</v>
       </c>
       <c r="S20">
-        <v>0.002496111487334888</v>
+        <v>0.009436308212663872</v>
       </c>
       <c r="T20">
-        <v>0.002496111487334888</v>
+        <v>0.007942681316156559</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.69262766584481</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H21">
-        <v>5.69262766584481</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I21">
-        <v>0.08835139760760394</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J21">
-        <v>0.08835139760760394</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.12688988333106</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N21">
-        <v>2.12688988333106</v>
+        <v>9.253715</v>
       </c>
       <c r="O21">
-        <v>0.3915818319480014</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P21">
-        <v>0.3915818319480014</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q21">
-        <v>12.10759219205583</v>
+        <v>53.07836433287944</v>
       </c>
       <c r="R21">
-        <v>12.10759219205583</v>
+        <v>477.7052789959149</v>
       </c>
       <c r="S21">
-        <v>0.03459680213035182</v>
+        <v>0.1440311594489379</v>
       </c>
       <c r="T21">
-        <v>0.03459680213035182</v>
+        <v>0.1818497615779703</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.68976706171239</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H22">
-        <v>6.68976706171239</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I22">
-        <v>0.1038273191689394</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J22">
-        <v>0.1038273191689394</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.180800721190486</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N22">
-        <v>0.180800721190486</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O22">
-        <v>0.03328723229921456</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P22">
-        <v>0.03328723229921456</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q22">
-        <v>1.209514709353959</v>
+        <v>0.388303079384111</v>
       </c>
       <c r="R22">
-        <v>1.209514709353959</v>
+        <v>3.494727714456999</v>
       </c>
       <c r="S22">
-        <v>0.003456124092181179</v>
+        <v>0.00105368248332856</v>
       </c>
       <c r="T22">
-        <v>0.003456124092181179</v>
+        <v>0.001330350384634047</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.68976706171239</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H23">
-        <v>6.68976706171239</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I23">
-        <v>0.1038273191689394</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J23">
-        <v>0.1038273191689394</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>2.97039084334425</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N23">
-        <v>2.97039084334425</v>
+        <v>0.020477</v>
       </c>
       <c r="O23">
-        <v>0.5468788474449011</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P23">
-        <v>0.5468788474449011</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q23">
-        <v>19.87122282421645</v>
+        <v>0.1174539810707778</v>
       </c>
       <c r="R23">
-        <v>19.87122282421645</v>
+        <v>1.057085829637</v>
       </c>
       <c r="S23">
-        <v>0.05678096464040347</v>
+        <v>0.0003187180556172197</v>
       </c>
       <c r="T23">
-        <v>0.05678096464040347</v>
+        <v>0.0004024046091577378</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.68976706171239</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H24">
-        <v>6.68976706171239</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I24">
-        <v>0.1038273191689394</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J24">
-        <v>0.1038273191689394</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.153452167344145</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N24">
-        <v>0.153452167344145</v>
+        <v>0.46904</v>
       </c>
       <c r="O24">
-        <v>0.02825208830788276</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P24">
-        <v>0.02825208830788276</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q24">
-        <v>1.026559254647239</v>
+        <v>2.690365545804444</v>
       </c>
       <c r="R24">
-        <v>1.026559254647239</v>
+        <v>24.21328991224</v>
       </c>
       <c r="S24">
-        <v>0.002933338589931605</v>
+        <v>0.007300459872378802</v>
       </c>
       <c r="T24">
-        <v>0.002933338589931605</v>
+        <v>0.00921735888457027</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.68976706171239</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H25">
-        <v>6.68976706171239</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I25">
-        <v>0.1038273191689394</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J25">
-        <v>0.1038273191689394</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.12688988333106</v>
+        <v>2.1440675</v>
       </c>
       <c r="N25">
-        <v>2.12688988333106</v>
+        <v>4.288135</v>
       </c>
       <c r="O25">
-        <v>0.3915818319480014</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P25">
-        <v>0.3915818319480014</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q25">
-        <v>14.22839788539743</v>
+        <v>36.89445674065583</v>
       </c>
       <c r="R25">
-        <v>14.22839788539743</v>
+        <v>221.366740443935</v>
       </c>
       <c r="S25">
-        <v>0.04065689184642314</v>
+        <v>0.1001152060426928</v>
       </c>
       <c r="T25">
-        <v>0.04065689184642314</v>
+        <v>0.08426846162477984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.796674333333333</v>
+      </c>
+      <c r="H26">
+        <v>17.390023</v>
+      </c>
+      <c r="I26">
+        <v>0.08834478070280039</v>
+      </c>
+      <c r="J26">
+        <v>0.09601031300673289</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.202088</v>
+      </c>
+      <c r="N26">
+        <v>0.404176</v>
+      </c>
+      <c r="O26">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P26">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q26">
+        <v>1.171438322674667</v>
+      </c>
+      <c r="R26">
+        <v>7.028629936048</v>
+      </c>
+      <c r="S26">
+        <v>0.003178764492055669</v>
+      </c>
+      <c r="T26">
+        <v>0.002675613467736125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.796674333333333</v>
+      </c>
+      <c r="H27">
+        <v>17.390023</v>
+      </c>
+      <c r="I27">
+        <v>0.08834478070280039</v>
+      </c>
+      <c r="J27">
+        <v>0.09601031300673289</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N27">
+        <v>9.253715</v>
+      </c>
+      <c r="O27">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P27">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q27">
+        <v>17.88025740949389</v>
+      </c>
+      <c r="R27">
+        <v>160.922316685445</v>
+      </c>
+      <c r="S27">
+        <v>0.04851909508333486</v>
+      </c>
+      <c r="T27">
+        <v>0.06125886861315812</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.796674333333333</v>
+      </c>
+      <c r="H28">
+        <v>17.390023</v>
+      </c>
+      <c r="I28">
+        <v>0.08834478070280039</v>
+      </c>
+      <c r="J28">
+        <v>0.09601031300673289</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N28">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P28">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q28">
+        <v>0.1308058207812222</v>
+      </c>
+      <c r="R28">
+        <v>1.177252387031</v>
+      </c>
+      <c r="S28">
+        <v>0.0003549490318057687</v>
+      </c>
+      <c r="T28">
+        <v>0.0004481488384400172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.796674333333333</v>
+      </c>
+      <c r="H29">
+        <v>17.390023</v>
+      </c>
+      <c r="I29">
+        <v>0.08834478070280039</v>
+      </c>
+      <c r="J29">
+        <v>0.09601031300673289</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.020477</v>
+      </c>
+      <c r="O29">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P29">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q29">
+        <v>0.03956616677455555</v>
+      </c>
+      <c r="R29">
+        <v>0.356095500971</v>
+      </c>
+      <c r="S29">
+        <v>0.0001073650431228375</v>
+      </c>
+      <c r="T29">
+        <v>0.0001355561363832405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.796674333333333</v>
+      </c>
+      <c r="H30">
+        <v>17.390023</v>
+      </c>
+      <c r="I30">
+        <v>0.08834478070280039</v>
+      </c>
+      <c r="J30">
+        <v>0.09601031300673289</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.46904</v>
+      </c>
+      <c r="O30">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P30">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q30">
+        <v>0.9062907097688888</v>
+      </c>
+      <c r="R30">
+        <v>8.15661638792</v>
+      </c>
+      <c r="S30">
+        <v>0.002459271369162264</v>
+      </c>
+      <c r="T30">
+        <v>0.003105008068037073</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.796674333333333</v>
+      </c>
+      <c r="H31">
+        <v>17.390023</v>
+      </c>
+      <c r="I31">
+        <v>0.08834478070280039</v>
+      </c>
+      <c r="J31">
+        <v>0.09601031300673289</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.1440675</v>
+      </c>
+      <c r="N31">
+        <v>4.288135</v>
+      </c>
+      <c r="O31">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P31">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q31">
+        <v>12.42846104618417</v>
+      </c>
+      <c r="R31">
+        <v>74.57076627710501</v>
+      </c>
+      <c r="S31">
+        <v>0.03372533568331899</v>
+      </c>
+      <c r="T31">
+        <v>0.02838711788297833</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>6.7205465</v>
+      </c>
+      <c r="H32">
+        <v>13.441093</v>
+      </c>
+      <c r="I32">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J32">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.202088</v>
+      </c>
+      <c r="N32">
+        <v>0.404176</v>
+      </c>
+      <c r="O32">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P32">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q32">
+        <v>1.358141801092</v>
+      </c>
+      <c r="R32">
+        <v>5.432567204368</v>
+      </c>
+      <c r="S32">
+        <v>0.003685394995982869</v>
+      </c>
+      <c r="T32">
+        <v>0.00206803461110395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>6.7205465</v>
+      </c>
+      <c r="H33">
+        <v>13.441093</v>
+      </c>
+      <c r="I33">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J33">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N33">
+        <v>9.253715</v>
+      </c>
+      <c r="O33">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P33">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q33">
+        <v>20.73000731841583</v>
+      </c>
+      <c r="R33">
+        <v>124.380043910495</v>
+      </c>
+      <c r="S33">
+        <v>0.05625205348701493</v>
+      </c>
+      <c r="T33">
+        <v>0.04734819212741923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>6.7205465</v>
+      </c>
+      <c r="H34">
+        <v>13.441093</v>
+      </c>
+      <c r="I34">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J34">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N34">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P34">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q34">
+        <v>0.1516536121368333</v>
+      </c>
+      <c r="R34">
+        <v>0.9099216728209999</v>
+      </c>
+      <c r="S34">
+        <v>0.0004115206989744604</v>
+      </c>
+      <c r="T34">
+        <v>0.0003463831080220105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>6.7205465</v>
+      </c>
+      <c r="H35">
+        <v>13.441093</v>
+      </c>
+      <c r="I35">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J35">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.020477</v>
+      </c>
+      <c r="O35">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P35">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q35">
+        <v>0.04587221022683333</v>
+      </c>
+      <c r="R35">
+        <v>0.275233261361</v>
+      </c>
+      <c r="S35">
+        <v>0.0001244768505679724</v>
+      </c>
+      <c r="T35">
+        <v>0.0001047740210491855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>6.7205465</v>
+      </c>
+      <c r="H36">
+        <v>13.441093</v>
+      </c>
+      <c r="I36">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J36">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.46904</v>
+      </c>
+      <c r="O36">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P36">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q36">
+        <v>1.050735043453333</v>
+      </c>
+      <c r="R36">
+        <v>6.30441026072</v>
+      </c>
+      <c r="S36">
+        <v>0.00285122928116432</v>
+      </c>
+      <c r="T36">
+        <v>0.002399922197241293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>6.7205465</v>
+      </c>
+      <c r="H37">
+        <v>13.441093</v>
+      </c>
+      <c r="I37">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J37">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.1440675</v>
+      </c>
+      <c r="N37">
+        <v>4.288135</v>
+      </c>
+      <c r="O37">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P37">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q37">
+        <v>14.40930533288875</v>
+      </c>
+      <c r="R37">
+        <v>57.63722133155501</v>
+      </c>
+      <c r="S37">
+        <v>0.03910046927848018</v>
+      </c>
+      <c r="T37">
+        <v>0.02194096531482879</v>
       </c>
     </row>
   </sheetData>
